--- a/update-input/ig/StructureDefinition-oncology-medication.xlsx
+++ b/update-input/ig/StructureDefinition-oncology-medication.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/oncology-medication</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/OncologyMedication</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:27:05+00:00</t>
+    <t>2024-03-25T09:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -631,7 +631,7 @@
 </t>
   </si>
   <si>
-    <t>The medication's code identifier</t>
+    <t>The medication's label</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -753,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t>The medication's type and label</t>
+    <t>The medication's code and label</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -2574,13 +2574,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>75</v>
@@ -3268,7 +3268,7 @@
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>75</v>
@@ -3602,13 +3602,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
@@ -3948,7 +3948,7 @@
         <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>75</v>
